--- a/Recursion.xlsx
+++ b/Recursion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\Desktop\LEETCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E6DDFE-386D-4639-B902-C5DD603FC921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E29606-79AE-4315-B771-886056AD3E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -653,7 +653,7 @@
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -662,82 +662,85 @@
     <col min="5" max="5" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>

--- a/Recursion.xlsx
+++ b/Recursion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\Desktop\LEETCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E29606-79AE-4315-B771-886056AD3E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84047FB-283F-4897-B73E-15D136B82E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>## Easy</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>done by recursion and bit manipulation</t>
+  </si>
+  <si>
+    <t>vv imp do after backtracking</t>
   </si>
 </sst>
 </file>
@@ -652,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -694,6 +697,9 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
@@ -754,16 +760,25 @@
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
@@ -909,82 +924,86 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" s="4"/>
+      <c r="E52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
